--- a/data/MAP/dx21_map.xlsx
+++ b/data/MAP/dx21_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zant1\OneDrive - nkz.ac.jp\School\DX21\DX21_Summer\data\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954531C6-9665-472E-A4E3-CA7EEECF4216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B67255-A14F-4756-B03A-B8F6A66BE08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A6672A07-4036-4F02-8D60-AD9F936D0F19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A6672A07-4036-4F02-8D60-AD9F936D0F19}"/>
   </bookViews>
   <sheets>
     <sheet name="map1" sheetId="1" r:id="rId1"/>
@@ -2239,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98A4CE9-591A-43E5-819B-9C2E2CFD1204}">
   <dimension ref="A1:BJ19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5:BJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -3103,19 +3103,19 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -3154,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3479,19 +3479,19 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -3530,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -3694,16 +3694,16 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -4213,13 +4213,13 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BH12">
         <v>0</v>
@@ -4398,25 +4398,25 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -4434,16 +4434,16 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -4458,16 +4458,16 @@
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -4482,31 +4482,31 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.4">
@@ -4598,13 +4598,13 @@
         <v>1</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -4622,16 +4622,16 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -4646,16 +4646,16 @@
         <v>0</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -5753,7 +5753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B1C29D-3A1B-40C1-8523-D3FEFAB81220}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF19" sqref="AF19:AG19"/>
     </sheetView>
   </sheetViews>
@@ -7243,7 +7243,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L16:M16 P16:Q16 A2:AF15</xm:sqref>
+          <xm:sqref>A2:AF15 L16:M16 P16:Q16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8906,15 +8906,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AA094C2DD54F3D40B3F96C69F3A5FD8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e977483a2380d92e716c4f7b974ccb35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="edfd6183-5028-4bc2-bb1f-19c410ff11e8" xmlns:ns4="6e367e43-7e4d-4385-be90-37c983986a94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c943780ab65844be991307ccad9bc58f" ns3:_="" ns4:_="">
     <xsd:import namespace="edfd6183-5028-4bc2-bb1f-19c410ff11e8"/>
@@ -9129,6 +9120,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8658E2-8E2C-4394-9D90-4D54E6ADABE2}">
   <ds:schemaRefs>
@@ -9140,14 +9140,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD1191A-6689-4D5E-B51D-AF4719A7C00F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64F0F89-9F72-4A04-813A-70CB9D9DBA13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9164,4 +9156,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD1191A-6689-4D5E-B51D-AF4719A7C00F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/MAP/dx21_map.xlsx
+++ b/data/MAP/dx21_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zant1\OneDrive - nkz.ac.jp\School\DX21\DX21_Summer\data\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B67255-A14F-4756-B03A-B8F6A66BE08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97DF7F8-EF33-4B7D-8A1C-46AB4FE04230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A6672A07-4036-4F02-8D60-AD9F936D0F19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A6672A07-4036-4F02-8D60-AD9F936D0F19}"/>
   </bookViews>
   <sheets>
     <sheet name="map1" sheetId="1" r:id="rId1"/>
@@ -2239,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98A4CE9-591A-43E5-819B-9C2E2CFD1204}">
   <dimension ref="A1:BJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:BJ5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4401,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>12</v>
@@ -7253,1391 +7253,3201 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0677CE-8D03-4251-AE80-2E0C3A700C5A}">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>14</v>
       </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="P8">
+      <c r="N19">
         <v>2</v>
       </c>
-      <c r="Q8">
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="R8">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="S8">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>6</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>14</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
+      <c r="G42">
         <v>2</v>
       </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
         <v>1</v>
       </c>
     </row>
@@ -8745,7 +10555,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A2:AF6 G7:AF9 A7:F10 X10:AF10 A11:AF13 A14:K15 N14:O15 R14:AF15 L14:M16 P14:Q16</xm:sqref>
+          <xm:sqref>A2:X44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8758,7 +10568,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -8845,7 +10655,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8853,7 +10663,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -8861,7 +10671,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -8898,6 +10708,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="edfd6183-5028-4bc2-bb1f-19c410ff11e8" xsi:nil="true"/>
@@ -8905,7 +10724,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AA094C2DD54F3D40B3F96C69F3A5FD8E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e977483a2380d92e716c4f7b974ccb35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="edfd6183-5028-4bc2-bb1f-19c410ff11e8" xmlns:ns4="6e367e43-7e4d-4385-be90-37c983986a94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c943780ab65844be991307ccad9bc58f" ns3:_="" ns4:_="">
     <xsd:import namespace="edfd6183-5028-4bc2-bb1f-19c410ff11e8"/>
@@ -9120,16 +10939,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD1191A-6689-4D5E-B51D-AF4719A7C00F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8658E2-8E2C-4394-9D90-4D54E6ADABE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9139,7 +10957,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64F0F89-9F72-4A04-813A-70CB9D9DBA13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9156,12 +10974,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD1191A-6689-4D5E-B51D-AF4719A7C00F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>